--- a/Book chapter Studies/Data to optimization/Day_350.xlsx
+++ b/Book chapter Studies/Data to optimization/Day_350.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\szata\Codes\StoriesTeams\Pipeline-dispatcher\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\szata\Codes\StoriesTeams\Pipeline-dispatcher\Book chapter Studies\Data to optimization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45D15A1D-9958-434E-B858-5D0A1A17DE87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24D32B0A-0F9F-4259-9C02-CD9F4A42EEC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35280" yWindow="3885" windowWidth="21495" windowHeight="10995" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WG" sheetId="1" r:id="rId1"/>
@@ -518,9 +518,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -528,7 +528,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -536,7 +536,7 @@
         <v>883606.25</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>3600</v>
       </c>
@@ -544,7 +544,7 @@
         <v>650893.75</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>7200</v>
       </c>
@@ -552,7 +552,7 @@
         <v>712950</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>10800</v>
       </c>
@@ -560,7 +560,7 @@
         <v>646381.25</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>14400</v>
       </c>
@@ -568,7 +568,7 @@
         <v>713575</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>18000</v>
       </c>
@@ -576,7 +576,7 @@
         <v>495637.5</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>21600</v>
       </c>
@@ -584,7 +584,7 @@
         <v>293306.25</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>25200</v>
       </c>
@@ -592,7 +592,7 @@
         <v>171306.25</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>28800</v>
       </c>
@@ -600,7 +600,7 @@
         <v>86112.5</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>32400</v>
       </c>
@@ -608,7 +608,7 @@
         <v>99256.25</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>36000</v>
       </c>
@@ -616,7 +616,7 @@
         <v>110050</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>39600</v>
       </c>
@@ -624,7 +624,7 @@
         <v>177493.75</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>43200</v>
       </c>
@@ -632,7 +632,7 @@
         <v>218537.5</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>46800</v>
       </c>
@@ -640,7 +640,7 @@
         <v>205443.75</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>50400</v>
       </c>
@@ -648,7 +648,7 @@
         <v>62693.75</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>54000</v>
       </c>
@@ -656,7 +656,7 @@
         <v>71393.75</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>57600</v>
       </c>
@@ -664,7 +664,7 @@
         <v>3068.75</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>61200</v>
       </c>
@@ -672,7 +672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>64800</v>
       </c>
@@ -680,7 +680,7 @@
         <v>493.75</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>68400</v>
       </c>
@@ -688,7 +688,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>72000</v>
       </c>
@@ -696,7 +696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>75600</v>
       </c>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>79200</v>
       </c>
@@ -712,7 +712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>82800</v>
       </c>
@@ -731,9 +731,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -741,7 +741,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -749,7 +749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>3600</v>
       </c>
@@ -757,7 +757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>7200</v>
       </c>
@@ -765,7 +765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>10800</v>
       </c>
@@ -773,7 +773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>14400</v>
       </c>
@@ -781,7 +781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>18000</v>
       </c>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>21600</v>
       </c>
@@ -797,7 +797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>25200</v>
       </c>
@@ -805,7 +805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>28800</v>
       </c>
@@ -813,7 +813,7 @@
         <v>8731.25</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>32400</v>
       </c>
@@ -821,7 +821,7 @@
         <v>269143.75</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>36000</v>
       </c>
@@ -829,7 +829,7 @@
         <v>606043.75</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>39600</v>
       </c>
@@ -837,7 +837,7 @@
         <v>762643.75</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>43200</v>
       </c>
@@ -845,7 +845,7 @@
         <v>1555893.75</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>46800</v>
       </c>
@@ -853,7 +853,7 @@
         <v>816993.75</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>50400</v>
       </c>
@@ -861,7 +861,7 @@
         <v>572993.75</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>54000</v>
       </c>
@@ -869,7 +869,7 @@
         <v>389706.25</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>57600</v>
       </c>
@@ -877,7 +877,7 @@
         <v>125368.75</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>61200</v>
       </c>
@@ -885,7 +885,7 @@
         <v>18012.5</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>64800</v>
       </c>
@@ -893,7 +893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>68400</v>
       </c>
@@ -901,7 +901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>72000</v>
       </c>
@@ -909,7 +909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>75600</v>
       </c>
@@ -917,7 +917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>79200</v>
       </c>
@@ -925,7 +925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>82800</v>
       </c>
@@ -946,12 +946,12 @@
       <selection activeCell="O1" sqref="O1:O1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="15" max="15" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -998,7 +998,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1046,7 +1046,7 @@
         <v>413727.91280890757</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>3600</v>
       </c>
@@ -1094,7 +1094,7 @@
         <v>381738.22579926811</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>7200</v>
       </c>
@@ -1142,7 +1142,7 @@
         <v>402685.64682354336</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>10800</v>
       </c>
@@ -1190,7 +1190,7 @@
         <v>402794.78829926811</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>14400</v>
       </c>
@@ -1238,7 +1238,7 @@
         <v>418048.45932354336</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>18000</v>
       </c>
@@ -1286,7 +1286,7 @@
         <v>526019.59919024457</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>21600</v>
       </c>
@@ -1334,7 +1334,7 @@
         <v>553850.69417347468</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>25200</v>
       </c>
@@ -1382,7 +1382,7 @@
         <v>673178.2201086086</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>28800</v>
       </c>
@@ -1430,7 +1430,7 @@
         <v>776580.2909903687</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>32400</v>
       </c>
@@ -1478,7 +1478,7 @@
         <v>785338.4263872673</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>36000</v>
       </c>
@@ -1526,7 +1526,7 @@
         <v>725172.51018498489</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>39600</v>
       </c>
@@ -1574,7 +1574,7 @@
         <v>715931.47484859452</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>43200</v>
       </c>
@@ -1622,7 +1622,7 @@
         <v>695637.84905450698</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>46800</v>
       </c>
@@ -1670,7 +1670,7 @@
         <v>715072.35567917081</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>50400</v>
       </c>
@@ -1718,7 +1718,7 @@
         <v>680614.99286732159</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>54000</v>
       </c>
@@ -1766,7 +1766,7 @@
         <v>621010.31037919957</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>57600</v>
       </c>
@@ -1814,7 +1814,7 @@
         <v>585506.19667300861</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>61200</v>
       </c>
@@ -1862,7 +1862,7 @@
         <v>541251.53834464878</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>64800</v>
       </c>
@@ -1910,7 +1910,7 @@
         <v>463201.13124470611</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>68400</v>
       </c>
@@ -1958,7 +1958,7 @@
         <v>494684.40359207778</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>72000</v>
       </c>
@@ -2006,7 +2006,7 @@
         <v>537060.77974724933</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>75600</v>
       </c>
@@ -2054,7 +2054,7 @@
         <v>539064.79423543904</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>79200</v>
       </c>
@@ -2102,7 +2102,7 @@
         <v>525058.56861575926</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>82800</v>
       </c>
@@ -2163,12 +2163,12 @@
       <selection activeCell="N1" sqref="N1:N1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="14" max="14" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2212,7 +2212,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -2257,7 +2257,7 @@
         <v>62750.000000000007</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>3600</v>
       </c>
@@ -2302,7 +2302,7 @@
         <v>62750.000000000007</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>7200</v>
       </c>
@@ -2347,7 +2347,7 @@
         <v>62750.000000000007</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>10800</v>
       </c>
@@ -2392,7 +2392,7 @@
         <v>62750.000000000007</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>14400</v>
       </c>
@@ -2437,7 +2437,7 @@
         <v>62750.000000000007</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>18000</v>
       </c>
@@ -2482,7 +2482,7 @@
         <v>89092.975206611591</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>21600</v>
       </c>
@@ -2527,7 +2527,7 @@
         <v>608333.34516176453</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>25200</v>
       </c>
@@ -2572,7 +2572,7 @@
         <v>1032778.9374482655</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>28800</v>
       </c>
@@ -2617,7 +2617,7 @@
         <v>1047916.6784950979</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>32400</v>
       </c>
@@ -2662,7 +2662,7 @@
         <v>857735.54901851481</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>36000</v>
       </c>
@@ -2707,7 +2707,7 @@
         <v>744064.06141520827</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>39600</v>
       </c>
@@ -2752,7 +2752,7 @@
         <v>763975.76980125008</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>43200</v>
       </c>
@@ -2797,7 +2797,7 @@
         <v>718980.72808187502</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>46800</v>
       </c>
@@ -2842,7 +2842,7 @@
         <v>719568.88235184806</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>50400</v>
       </c>
@@ -2887,7 +2887,7 @@
         <v>694402.21568518132</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>54000</v>
       </c>
@@ -2932,7 +2932,7 @@
         <v>720157.03662181972</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>57600</v>
       </c>
@@ -2977,7 +2977,7 @@
         <v>765235.41167452815</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>61200</v>
       </c>
@@ -3022,7 +3022,7 @@
         <v>745323.70328848646</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>64800</v>
       </c>
@@ -3067,7 +3067,7 @@
         <v>475871.90082644694</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>68400</v>
       </c>
@@ -3112,7 +3112,7 @@
         <v>601455.23415978032</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>72000</v>
       </c>
@@ -3157,7 +3157,7 @@
         <v>491009.64187327813</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>75600</v>
       </c>
@@ -3202,7 +3202,7 @@
         <v>296342.97520661145</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>79200</v>
       </c>
@@ -3247,7 +3247,7 @@
         <v>151926.30853994482</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>82800</v>
       </c>
